--- a/Team-Data/2012-13/3-8-2012-13.xlsx
+++ b/Team-Data/2012-13/3-8-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
         <v>37.5</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.463</v>
@@ -696,7 +763,7 @@
         <v>23.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
         <v>13.6</v>
@@ -705,19 +772,19 @@
         <v>19.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
         <v>40.6</v>
       </c>
       <c r="U2" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
@@ -726,37 +793,37 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD2" t="n">
         <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -795,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
         <v>17</v>
@@ -816,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
       </c>
       <c r="I3" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L3" t="n">
         <v>5.9</v>
@@ -878,7 +945,7 @@
         <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="O3" t="n">
         <v>16.2</v>
@@ -887,16 +954,16 @@
         <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
         <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U3" t="n">
         <v>23.2</v>
@@ -917,10 +984,10 @@
         <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>0.4</v>
@@ -929,19 +996,19 @@
         <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -962,16 +1029,16 @@
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>28</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.581</v>
+        <v>0.574</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L4" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P4" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.735</v>
+        <v>0.738</v>
       </c>
       <c r="R4" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S4" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
         <v>15</v>
@@ -1090,25 +1157,25 @@
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
         <v>18.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
         <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,40 +1205,40 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>3</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21</v>
+        <v>0.213</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1236,13 +1303,13 @@
         <v>0.418</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O5" t="n">
         <v>18.9</v>
@@ -1251,25 +1318,25 @@
         <v>25.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
         <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T5" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U5" t="n">
         <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>6.1</v>
@@ -1278,7 +1345,7 @@
         <v>7.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
@@ -1287,10 +1354,10 @@
         <v>93</v>
       </c>
       <c r="AC5" t="n">
-        <v>-10.5</v>
+        <v>-10.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
         <v>27</v>
@@ -1326,16 +1393,16 @@
         <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT5" t="n">
         <v>27</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
         <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
         <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
         <v>4.9</v>
@@ -1424,28 +1491,28 @@
         <v>14.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O6" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
         <v>30.7</v>
       </c>
       <c r="T6" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
         <v>14.7</v>
@@ -1454,16 +1521,16 @@
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z6" t="n">
         <v>19.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB6" t="n">
         <v>92.5</v>
@@ -1472,16 +1539,16 @@
         <v>1.1</v>
       </c>
       <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="n">
         <v>11</v>
       </c>
-      <c r="AE6" t="n">
-        <v>10</v>
-      </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1493,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,34 +1569,34 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>16</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>9</v>
@@ -1541,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -1576,34 +1643,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84</v>
+        <v>84.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
         <v>0.354</v>
@@ -1612,19 +1679,19 @@
         <v>17.5</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q7" t="n">
         <v>0.764</v>
       </c>
       <c r="R7" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S7" t="n">
         <v>28.2</v>
       </c>
       <c r="T7" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
@@ -1633,7 +1700,7 @@
         <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X7" t="n">
         <v>3.9</v>
@@ -1642,61 +1709,61 @@
         <v>7.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1705,7 +1772,7 @@
         <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
@@ -1714,7 +1781,7 @@
         <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1723,13 +1790,13 @@
         <v>24</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BC7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
         <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.459</v>
+        <v>0.45</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
@@ -1776,40 +1843,40 @@
         <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.791</v>
+        <v>0.794</v>
       </c>
       <c r="R8" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
         <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
         <v>14.3</v>
@@ -1818,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
         <v>4.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA8" t="n">
         <v>19.4</v>
@@ -1833,7 +1900,7 @@
         <v>101.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD8" t="n">
         <v>20</v>
@@ -1854,25 +1921,25 @@
         <v>6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,28 +1948,28 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2042,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>18</v>
@@ -2060,7 +2127,7 @@
         <v>30</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>11</v>
@@ -2069,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -2122,70 +2189,70 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>0.359</v>
+        <v>0.365</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.59999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P10" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T10" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
         <v>6.9</v>
       </c>
       <c r="X10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z10" t="n">
         <v>19.7</v>
@@ -2194,13 +2261,13 @@
         <v>20.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2209,7 +2276,7 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -2230,13 +2297,13 @@
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>26</v>
@@ -2272,7 +2339,7 @@
         <v>11</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
         <v>35</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>0.556</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,10 +2389,10 @@
         <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
@@ -2334,28 +2401,28 @@
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.395</v>
+        <v>0.394</v>
       </c>
       <c r="O11" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P11" t="n">
         <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V11" t="n">
         <v>15.3</v>
@@ -2370,28 +2437,28 @@
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
         <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC11" t="n">
         <v>-0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -2424,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2433,13 +2500,13 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW11" t="n">
         <v>27</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>28</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>0.54</v>
+        <v>0.532</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="J12" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L12" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q12" t="n">
         <v>0.753</v>
       </c>
       <c r="R12" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U12" t="n">
         <v>23.5</v>
@@ -2546,7 +2613,7 @@
         <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y12" t="n">
         <v>6.1</v>
@@ -2558,16 +2625,16 @@
         <v>20.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.8</v>
+        <v>107</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2600,19 +2667,19 @@
         <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -2621,10 +2688,10 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,10 +2700,10 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="n">
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J13" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2698,7 +2765,7 @@
         <v>19.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.352</v>
       </c>
       <c r="O13" t="n">
         <v>16.9</v>
@@ -2719,7 +2786,7 @@
         <v>45.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V13" t="n">
         <v>15.2</v>
@@ -2740,13 +2807,13 @@
         <v>21.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2755,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>16</v>
@@ -2776,13 +2843,13 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>16</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2952,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>10</v>
@@ -2973,16 +3040,16 @@
         <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -3032,43 +3099,43 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="n">
         <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K15" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="N15" t="n">
         <v>0.361</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0.6919999999999999</v>
@@ -3080,10 +3147,10 @@
         <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3098,22 +3165,22 @@
         <v>5.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA15" t="n">
         <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.4</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
         <v>17</v>
@@ -3122,13 +3189,13 @@
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3140,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3164,10 +3231,10 @@
         <v>16</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3247,31 +3314,31 @@
         <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q16" t="n">
         <v>0.777</v>
       </c>
       <c r="R16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S16" t="n">
         <v>29.6</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V16" t="n">
         <v>14.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>5.2</v>
@@ -3286,16 +3353,16 @@
         <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD16" t="n">
         <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3307,13 +3374,13 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3328,19 +3395,19 @@
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3349,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
         <v>14</v>
@@ -3361,13 +3428,13 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
         <v>78.7</v>
@@ -3429,10 +3496,10 @@
         <v>0.387</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.764</v>
@@ -3453,7 +3520,7 @@
         <v>13.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>5.1</v>
@@ -3462,7 +3529,7 @@
         <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
@@ -3483,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
@@ -3507,16 +3574,16 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
         <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
       </c>
       <c r="AR17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
         <v>19</v>
@@ -3525,13 +3592,13 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3686,19 +3753,19 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
         <v>13</v>
@@ -3707,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
@@ -3719,13 +3786,13 @@
         <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ18" t="n">
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -3841,13 +3908,13 @@
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3880,28 +3947,28 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>11</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4087,22 @@
         <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4059,7 +4126,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>15</v>
@@ -4083,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4095,7 +4162,7 @@
         <v>21</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,19 +4278,19 @@
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
         <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="L22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
         <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O22" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="P22" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
         <v>0.832</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
         <v>7.6</v>
@@ -4375,16 +4442,16 @@
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>107</v>
+        <v>106.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>28</v>
@@ -4432,10 +4499,10 @@
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4447,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4456,7 +4523,7 @@
         <v>7</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>0.27</v>
+        <v>0.274</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J23" t="n">
         <v>83.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O23" t="n">
         <v>12.4</v>
@@ -4527,28 +4594,28 @@
         <v>16.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R23" t="n">
         <v>10.6</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>6.1</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
@@ -4557,16 +4624,16 @@
         <v>19.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.4</v>
+        <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4605,22 +4672,22 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4638,10 +4705,10 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.377</v>
+        <v>0.383</v>
       </c>
       <c r="H24" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I24" t="n">
         <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L24" t="n">
         <v>6.2</v>
@@ -4700,16 +4767,16 @@
         <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O24" t="n">
         <v>12.1</v>
       </c>
       <c r="P24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
@@ -4718,19 +4785,19 @@
         <v>30.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U24" t="n">
         <v>22.4</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
         <v>7.3</v>
       </c>
       <c r="X24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
@@ -4739,13 +4806,13 @@
         <v>18.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="AB24" t="n">
         <v>92.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
         <v>20</v>
@@ -4754,7 +4821,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
@@ -4763,10 +4830,10 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>23</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,13 +4857,13 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4808,10 +4875,10 @@
         <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="n">
         <v>21</v>
       </c>
       <c r="F25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
         <v>84</v>
       </c>
       <c r="K25" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L25" t="n">
         <v>5.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N25" t="n">
         <v>0.327</v>
       </c>
       <c r="O25" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R25" t="n">
         <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T25" t="n">
         <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
@@ -4918,28 +4985,28 @@
         <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH25" t="n">
         <v>15</v>
@@ -4948,7 +5015,7 @@
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
         <v>20</v>
@@ -4975,7 +5042,7 @@
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>20</v>
@@ -5002,7 +5069,7 @@
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="n">
         <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.475</v>
+        <v>0.467</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.445</v>
       </c>
       <c r="L26" t="n">
         <v>8.1</v>
@@ -5064,7 +5131,7 @@
         <v>23.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O26" t="n">
         <v>16.3</v>
@@ -5073,10 +5140,10 @@
         <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S26" t="n">
         <v>30.4</v>
@@ -5088,28 +5155,28 @@
         <v>21.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>98</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.8</v>
+        <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
         <v>20</v>
@@ -5127,7 +5194,7 @@
         <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -5142,7 +5209,7 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -5160,19 +5227,19 @@
         <v>17</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,7 +5251,7 @@
         <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
         <v>42</v>
       </c>
       <c r="G27" t="n">
-        <v>0.344</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J27" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M27" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O27" t="n">
         <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R27" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S27" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T27" t="n">
         <v>40.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V27" t="n">
         <v>15.1</v>
@@ -5285,16 +5352,16 @@
         <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.1</v>
+        <v>-6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5303,19 +5370,19 @@
         <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
@@ -5333,7 +5400,7 @@
         <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5345,13 +5412,13 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>20</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,16 +5427,16 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="n">
         <v>48</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.762</v>
+        <v>0.774</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
         <v>0.788</v>
@@ -5443,19 +5510,19 @@
         <v>7.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
         <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X28" t="n">
         <v>5.3</v>
@@ -5470,25 +5537,25 @@
         <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
@@ -5533,13 +5600,13 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX28" t="n">
         <v>13</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>0.381</v>
+        <v>0.387</v>
       </c>
       <c r="H29" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
         <v>7.4</v>
@@ -5613,25 +5680,25 @@
         <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P29" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q29" t="n">
         <v>0.782</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U29" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
         <v>13.3</v>
@@ -5646,19 +5713,19 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC29" t="n">
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5673,13 +5740,13 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5691,25 +5758,25 @@
         <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT29" t="n">
         <v>29</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5721,16 +5788,16 @@
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB29" t="n">
         <v>16</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>15</v>
       </c>
       <c r="BC29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
         <v>32</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.516</v>
+        <v>0.525</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
@@ -5780,7 +5847,7 @@
         <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K30" t="n">
         <v>0.451</v>
@@ -5789,31 +5856,31 @@
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P30" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S30" t="n">
         <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
         <v>15</v>
@@ -5825,40 +5892,40 @@
         <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
         <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>14</v>
@@ -5867,10 +5934,10 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,22 +5946,22 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>12</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5912,7 +5979,7 @@
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="n">
         <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>0.317</v>
+        <v>0.322</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5962,34 +6029,34 @@
         <v>35.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
         <v>18.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O31" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P31" t="n">
         <v>20</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T31" t="n">
         <v>43.4</v>
@@ -5998,28 +6065,28 @@
         <v>21.8</v>
       </c>
       <c r="V31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.5</v>
+        <v>91.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD31" t="n">
         <v>25</v>
@@ -6040,19 +6107,19 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6061,31 +6128,31 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV31" t="n">
         <v>29</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-8-2012-13</t>
+          <t>2013-03-08</t>
         </is>
       </c>
     </row>
